--- a/data/output/cluster_metrics_kmeans.xlsx
+++ b/data/output/cluster_metrics_kmeans.xlsx
@@ -485,8 +485,10 @@
           <t>qa_coverage_line_%</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1.180130815367262e-14</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.18e-14</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -509,8 +511,10 @@
           <t>qa_coverage_line_%</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1.634871885687534e-13</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63e-13</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -533,8 +537,10 @@
           <t>qa_coverage_line_%</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>3.811713889470054e-16</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81e-16</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -557,8 +563,10 @@
           <t>qa_fix_dispersion_mean</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>3.611879109083059e-14</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61e-14</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -581,8 +589,10 @@
           <t>qa_dwell_time_pdf</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>2.16972029118715e-21</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17e-21</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -605,8 +615,10 @@
           <t>qa_coverage_line_%</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1.443183436653568e-10</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44e-10</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -629,8 +641,10 @@
           <t>qa_coverage_line_%</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>8.745205101910946e-17</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.75e-17</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/output/cluster_metrics_kmeans.xlsx
+++ b/data/output/cluster_metrics_kmeans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8622765520563075</v>
+        <v>0.9120940623601805</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1708901266698996</v>
+        <v>0.30390395982211</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,163 +487,59 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.18e-14</t>
+          <t>1.87e-14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>GatesS</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6957919848912608</v>
+        <v>0.8631750967368461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1628859432260385</v>
+        <v>0.2487034605263034</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.63e-13</t>
+          <t>6.96e-32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clouds</t>
+          <t>GatesT</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7247958673066692</v>
+        <v>0.6408439853325831</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1986282007542585</v>
+        <v>0.2350096346959526</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>coldread_stopwatch_wpm</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81e-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Waterclocks</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6667766256270388</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1946057971551229</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>qa_fix_dispersion_mean</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.61e-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Lizards</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6553757288878089</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1535275044131097</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>qa_dwell_time_pdf</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.17e-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tastes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7428513972744206</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1481387093589631</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.44e-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lodgepoles</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6828954388942742</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1677439000876463</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>qa_coverage_line_%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.75e-17</t>
+          <t>1.03e-25</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_kmeans.xlsx
+++ b/data/output/cluster_metrics_kmeans.xlsx
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9120940623601805</v>
+        <v>0.6946179502469849</v>
       </c>
       <c r="D2" t="n">
-        <v>0.30390395982211</v>
+        <v>0.1674370704476836</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87e-14</t>
+          <t>3.10e-13</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8631750967368461</v>
+        <v>0.6520795768221956</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2487034605263034</v>
+        <v>0.1707295210231295</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.96e-32</t>
+          <t>1.61e-09</t>
         </is>
       </c>
     </row>
@@ -527,19 +527,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6408439853325831</v>
+        <v>0.7389585117874775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2350096346959526</v>
+        <v>0.1395684625457408</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>coldread_stopwatch_wpm</t>
+          <t>qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.03e-25</t>
+          <t>2.18e-07</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_kmeans.xlsx
+++ b/data/output/cluster_metrics_kmeans.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>qa_coverage_line_%</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qa_saccade_regression_rate_%</t>
+          <t>norm_qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>qa_saccade_regression_rate_%</t>
+          <t>norm_qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">

--- a/data/output/cluster_metrics_kmeans.xlsx
+++ b/data/output/cluster_metrics_kmeans.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6946179502469849</v>
+        <v>0.6672822420543184</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1674370704476836</v>
+        <v>0.1642094362435357</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>norm_qa_coverage_line_%</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10e-13</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6520795768221956</v>
+        <v>0.6775720524712502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1707295210231295</v>
+        <v>0.1556630503653458</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>norm_qa_saccade_regression_rate_%</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.61e-09</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7389585117874775</v>
+        <v>0.6620101350062908</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1395684625457408</v>
+        <v>0.1360466166293595</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>norm_qa_saccade_regression_rate_%</t>
+          <t>norm_coldread_gaze_wpm_median</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.18e-07</t>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/data/output/cluster_metrics_kmeans.xlsx
+++ b/data/output/cluster_metrics_kmeans.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,12 +482,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
+          <t>norm_coldread_dwell_time_pdf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5.19e-10</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6775720524712502</v>
+        <v>0.6775720524712501</v>
       </c>
       <c r="D3" t="n">
         <v>0.1556630503653458</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
+          <t>norm_qa_saccade_regression_rate_%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3.34e-09</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>norm_coldread_gaze_wpm_median</t>
+          <t>norm_qa_coverage_line_%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2.62e-07</t>
         </is>
       </c>
     </row>
